--- a/results/daily/small_window_10days.xlsx
+++ b/results/daily/small_window_10days.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,10 +456,15 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>y_score</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>confidence</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>x_number_of_days_before_delivery</t>
         </is>
@@ -482,9 +487,12 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.769360139966011</v>
+        <v>0.01610786095261574</v>
       </c>
       <c r="G2" t="n">
+        <v>0.9838921390473843</v>
+      </c>
+      <c r="H2" t="n">
         <v>15</v>
       </c>
     </row>
@@ -505,9 +513,12 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9476451873779297</v>
+        <v>1.602203337824903e-05</v>
       </c>
       <c r="G3" t="n">
+        <v>0.9999839779666218</v>
+      </c>
+      <c r="H3" t="n">
         <v>12</v>
       </c>
     </row>
@@ -528,9 +539,12 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6476133763790131</v>
+        <v>0.07431565970182419</v>
       </c>
       <c r="G4" t="n">
+        <v>0.9256843402981758</v>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -551,9 +565,12 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7769341319799423</v>
+        <v>0.008437851443886757</v>
       </c>
       <c r="G5" t="n">
+        <v>0.9915621485561132</v>
+      </c>
+      <c r="H5" t="n">
         <v>12</v>
       </c>
     </row>
@@ -574,9 +591,12 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7504868507385254</v>
+        <v>0.2178628742694855</v>
       </c>
       <c r="G6" t="n">
+        <v>0.7821371257305145</v>
+      </c>
+      <c r="H6" t="n">
         <v>14</v>
       </c>
     </row>
@@ -597,9 +617,12 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8977774456143379</v>
+        <v>0.0004684484156314284</v>
       </c>
       <c r="G7" t="n">
+        <v>0.9995315515843686</v>
+      </c>
+      <c r="H7" t="n">
         <v>8</v>
       </c>
     </row>
@@ -620,9 +643,12 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7482275068759918</v>
+        <v>0.009242513217031956</v>
       </c>
       <c r="G8" t="n">
+        <v>0.990757486782968</v>
+      </c>
+      <c r="H8" t="n">
         <v>13</v>
       </c>
     </row>
@@ -637,15 +663,18 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8070387244224548</v>
+        <v>0.01366916671395302</v>
       </c>
       <c r="G9" t="n">
+        <v>0.986330833286047</v>
+      </c>
+      <c r="H9" t="n">
         <v>14</v>
       </c>
     </row>
@@ -666,9 +695,12 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7873891443014145</v>
+        <v>0.2227775454521179</v>
       </c>
       <c r="G10" t="n">
+        <v>0.7772224545478821</v>
+      </c>
+      <c r="H10" t="n">
         <v>7</v>
       </c>
     </row>
@@ -689,9 +721,12 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9164382591843605</v>
+        <v>0.006513572763651609</v>
       </c>
       <c r="G11" t="n">
+        <v>0.9934864272363484</v>
+      </c>
+      <c r="H11" t="n">
         <v>7</v>
       </c>
     </row>
@@ -712,9 +747,12 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9356927573680878</v>
+        <v>0.03278654813766479</v>
       </c>
       <c r="G12" t="n">
+        <v>0.9672134518623352</v>
+      </c>
+      <c r="H12" t="n">
         <v>9</v>
       </c>
     </row>
@@ -735,9 +773,12 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7859445214271545</v>
+        <v>0.4853655695915222</v>
       </c>
       <c r="G13" t="n">
+        <v>0.5146344304084778</v>
+      </c>
+      <c r="H13" t="n">
         <v>6</v>
       </c>
     </row>
@@ -758,9 +799,12 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8575733006000519</v>
+        <v>0.005490966606885195</v>
       </c>
       <c r="G14" t="n">
+        <v>0.9945090333931148</v>
+      </c>
+      <c r="H14" t="n">
         <v>7</v>
       </c>
     </row>
@@ -781,9 +825,12 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9245807304978371</v>
+        <v>0.002892324468120933</v>
       </c>
       <c r="G15" t="n">
+        <v>0.9971076755318791</v>
+      </c>
+      <c r="H15" t="n">
         <v>8</v>
       </c>
     </row>
@@ -804,9 +851,12 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9202779680490494</v>
+        <v>0.0007308017229661345</v>
       </c>
       <c r="G16" t="n">
+        <v>0.9992691982770339</v>
+      </c>
+      <c r="H16" t="n">
         <v>10</v>
       </c>
     </row>
@@ -827,9 +877,12 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8251254111528397</v>
+        <v>0.01107779983431101</v>
       </c>
       <c r="G17" t="n">
+        <v>0.988922200165689</v>
+      </c>
+      <c r="H17" t="n">
         <v>15</v>
       </c>
     </row>
@@ -850,9 +903,12 @@
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5957379043102264</v>
+        <v>0.001118725864216685</v>
       </c>
       <c r="G18" t="n">
+        <v>0.9988812741357833</v>
+      </c>
+      <c r="H18" t="n">
         <v>12</v>
       </c>
     </row>
@@ -873,9 +929,12 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7237089872360229</v>
+        <v>0.04413324967026711</v>
       </c>
       <c r="G19" t="n">
+        <v>0.9558667503297329</v>
+      </c>
+      <c r="H19" t="n">
         <v>6</v>
       </c>
     </row>
@@ -896,9 +955,12 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6645999848842621</v>
+        <v>0.02563681080937386</v>
       </c>
       <c r="G20" t="n">
+        <v>0.9743631891906261</v>
+      </c>
+      <c r="H20" t="n">
         <v>11</v>
       </c>
     </row>
@@ -919,9 +981,12 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8010899871587753</v>
+        <v>0.003891832428053021</v>
       </c>
       <c r="G21" t="n">
+        <v>0.996108167571947</v>
+      </c>
+      <c r="H21" t="n">
         <v>9</v>
       </c>
     </row>
@@ -942,9 +1007,12 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8037198781967163</v>
+        <v>0.05025598406791687</v>
       </c>
       <c r="G22" t="n">
+        <v>0.9497440159320831</v>
+      </c>
+      <c r="H22" t="n">
         <v>8</v>
       </c>
     </row>
@@ -965,9 +1033,12 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9175048172473907</v>
+        <v>0.0001704209134913981</v>
       </c>
       <c r="G23" t="n">
+        <v>0.9998295790865086</v>
+      </c>
+      <c r="H23" t="n">
         <v>11</v>
       </c>
     </row>
@@ -988,9 +1059,12 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6025600731372833</v>
+        <v>0.002330302027985454</v>
       </c>
       <c r="G24" t="n">
+        <v>0.9976696979720145</v>
+      </c>
+      <c r="H24" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1011,9 +1085,12 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.891363188624382</v>
+        <v>0.002474415116012096</v>
       </c>
       <c r="G25" t="n">
+        <v>0.9975255848839879</v>
+      </c>
+      <c r="H25" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1034,9 +1111,12 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8883077725768089</v>
+        <v>0.001020286465063691</v>
       </c>
       <c r="G26" t="n">
+        <v>0.9989797135349363</v>
+      </c>
+      <c r="H26" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1057,9 +1137,12 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.977917704731226</v>
+        <v>6.17505720583722e-05</v>
       </c>
       <c r="G27" t="n">
+        <v>0.9999382494279416</v>
+      </c>
+      <c r="H27" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1080,9 +1163,12 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9707042500376701</v>
+        <v>1.970811717910692e-05</v>
       </c>
       <c r="G28" t="n">
+        <v>0.9999802918828209</v>
+      </c>
+      <c r="H28" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1103,9 +1189,12 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.5811696946620941</v>
+        <v>0.1458232253789902</v>
       </c>
       <c r="G29" t="n">
+        <v>0.8541767746210098</v>
+      </c>
+      <c r="H29" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1126,9 +1215,12 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9948241710662842</v>
+        <v>0.9999269247055054</v>
       </c>
       <c r="G30" t="n">
+        <v>0.9999269247055054</v>
+      </c>
+      <c r="H30" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1149,9 +1241,12 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.5932159423828125</v>
+        <v>0.9823288321495056</v>
       </c>
       <c r="G31" t="n">
+        <v>0.9823288321495056</v>
+      </c>
+      <c r="H31" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1172,9 +1267,12 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9446985125541687</v>
+        <v>0.9716530442237854</v>
       </c>
       <c r="G32" t="n">
+        <v>0.9716530442237854</v>
+      </c>
+      <c r="H32" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1189,15 +1287,18 @@
         <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.5697108805179596</v>
+        <v>0.9991500377655029</v>
       </c>
       <c r="G33" t="n">
+        <v>0.9991500377655029</v>
+      </c>
+      <c r="H33" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1218,9 +1319,12 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.7887287139892578</v>
+        <v>0.9952007532119751</v>
       </c>
       <c r="G34" t="n">
+        <v>0.9952007532119751</v>
+      </c>
+      <c r="H34" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1241,9 +1345,12 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9018370509147644</v>
+        <v>0.9997128844261169</v>
       </c>
       <c r="G35" t="n">
+        <v>0.9997128844261169</v>
+      </c>
+      <c r="H35" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1264,9 +1371,12 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9160927534103394</v>
+        <v>0.9877098798751831</v>
       </c>
       <c r="G36" t="n">
+        <v>0.9877098798751831</v>
+      </c>
+      <c r="H36" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1287,9 +1397,12 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.658755362033844</v>
+        <v>0.999995231628418</v>
       </c>
       <c r="G37" t="n">
+        <v>0.999995231628418</v>
+      </c>
+      <c r="H37" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1304,15 +1417,18 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.8800747767090797</v>
+        <v>0.9953345656394958</v>
       </c>
       <c r="G38" t="n">
+        <v>0.9953345656394958</v>
+      </c>
+      <c r="H38" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1333,9 +1449,12 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9805569648742676</v>
+        <v>0.998779833316803</v>
       </c>
       <c r="G39" t="n">
+        <v>0.998779833316803</v>
+      </c>
+      <c r="H39" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1356,9 +1475,12 @@
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.7229814529418945</v>
+        <v>0.9995754361152649</v>
       </c>
       <c r="G40" t="n">
+        <v>0.9995754361152649</v>
+      </c>
+      <c r="H40" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1379,9 +1501,12 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9151128530502319</v>
+        <v>0.9999860525131226</v>
       </c>
       <c r="G41" t="n">
+        <v>0.9999860525131226</v>
+      </c>
+      <c r="H41" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1402,9 +1527,12 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.892874538898468</v>
+        <v>0.9999709129333496</v>
       </c>
       <c r="G42" t="n">
+        <v>0.9999709129333496</v>
+      </c>
+      <c r="H42" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1425,9 +1553,12 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9552983045578003</v>
+        <v>0.9995102882385254</v>
       </c>
       <c r="G43" t="n">
+        <v>0.9995102882385254</v>
+      </c>
+      <c r="H43" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1448,9 +1579,12 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.8927662968635559</v>
+        <v>0.9996169805526733</v>
       </c>
       <c r="G44" t="n">
+        <v>0.9996169805526733</v>
+      </c>
+      <c r="H44" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1471,9 +1605,12 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.67915940284729</v>
+        <v>0.992709755897522</v>
       </c>
       <c r="G45" t="n">
+        <v>0.992709755897522</v>
+      </c>
+      <c r="H45" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1494,9 +1631,12 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8138123154640198</v>
+        <v>0.7549496293067932</v>
       </c>
       <c r="G46" t="n">
+        <v>0.7549496293067932</v>
+      </c>
+      <c r="H46" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1517,9 +1657,12 @@
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0.8821290731430054</v>
+        <v>0.9997888207435608</v>
       </c>
       <c r="G47" t="n">
+        <v>0.9997888207435608</v>
+      </c>
+      <c r="H47" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1540,9 +1683,12 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.6793596148490906</v>
+        <v>0.9986182451248169</v>
       </c>
       <c r="G48" t="n">
+        <v>0.9986182451248169</v>
+      </c>
+      <c r="H48" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1563,9 +1709,12 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9868685603141785</v>
+        <v>0.9972341656684875</v>
       </c>
       <c r="G49" t="n">
+        <v>0.9972341656684875</v>
+      </c>
+      <c r="H49" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1586,9 +1735,12 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8623184561729431</v>
+        <v>0.8401632905006409</v>
       </c>
       <c r="G50" t="n">
+        <v>0.8401632905006409</v>
+      </c>
+      <c r="H50" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1609,9 +1761,12 @@
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>0.7687329649925232</v>
+        <v>0.9499735236167908</v>
       </c>
       <c r="G51" t="n">
+        <v>0.9499735236167908</v>
+      </c>
+      <c r="H51" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1632,9 +1787,12 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8762146234512329</v>
+        <v>0.9959967136383057</v>
       </c>
       <c r="G52" t="n">
+        <v>0.9959967136383057</v>
+      </c>
+      <c r="H52" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1655,9 +1813,12 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9753540754318237</v>
+        <v>0.9862451553344727</v>
       </c>
       <c r="G53" t="n">
+        <v>0.9862451553344727</v>
+      </c>
+      <c r="H53" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1678,9 +1839,12 @@
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>0.6363682150840759</v>
+        <v>0.9386146068572998</v>
       </c>
       <c r="G54" t="n">
+        <v>0.9386146068572998</v>
+      </c>
+      <c r="H54" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1701,9 +1865,12 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.5675491690635681</v>
+        <v>0.9836598634719849</v>
       </c>
       <c r="G55" t="n">
+        <v>0.9836598634719849</v>
+      </c>
+      <c r="H55" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1724,9 +1891,12 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9827773571014404</v>
+        <v>0.9999995231628418</v>
       </c>
       <c r="G56" t="n">
+        <v>0.9999995231628418</v>
+      </c>
+      <c r="H56" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1747,9 +1917,12 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.7569056153297424</v>
+        <v>0.9986127614974976</v>
       </c>
       <c r="G57" t="n">
+        <v>0.9986127614974976</v>
+      </c>
+      <c r="H57" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1770,9 +1943,12 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9437311291694641</v>
+        <v>0.9988023042678833</v>
       </c>
       <c r="G58" t="n">
+        <v>0.9988023042678833</v>
+      </c>
+      <c r="H58" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1793,9 +1969,12 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9526528120040894</v>
+        <v>0.9997934699058533</v>
       </c>
       <c r="G59" t="n">
+        <v>0.9997934699058533</v>
+      </c>
+      <c r="H59" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1816,9 +1995,12 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9538131356239319</v>
+        <v>0.9982082843780518</v>
       </c>
       <c r="G60" t="n">
+        <v>0.9982082843780518</v>
+      </c>
+      <c r="H60" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1839,9 +2021,12 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9255715608596802</v>
+        <v>0.993425726890564</v>
       </c>
       <c r="G61" t="n">
+        <v>0.993425726890564</v>
+      </c>
+      <c r="H61" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1862,9 +2047,12 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.8423268795013428</v>
+        <v>0.9987989664077759</v>
       </c>
       <c r="G62" t="n">
+        <v>0.9987989664077759</v>
+      </c>
+      <c r="H62" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1885,9 +2073,12 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9985675811767578</v>
+        <v>0.9329780340194702</v>
       </c>
       <c r="G63" t="n">
+        <v>0.9329780340194702</v>
+      </c>
+      <c r="H63" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1908,9 +2099,12 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9682170152664185</v>
+        <v>0.9986139535903931</v>
       </c>
       <c r="G64" t="n">
+        <v>0.9986139535903931</v>
+      </c>
+      <c r="H64" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1931,9 +2125,12 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.539716899394989</v>
+        <v>0.7171274423599243</v>
       </c>
       <c r="G65" t="n">
+        <v>0.7171274423599243</v>
+      </c>
+      <c r="H65" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1954,9 +2151,12 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.6733155846595764</v>
+        <v>0.9892688393592834</v>
       </c>
       <c r="G66" t="n">
+        <v>0.9892688393592834</v>
+      </c>
+      <c r="H66" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1977,9 +2177,12 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9777546525001526</v>
+        <v>0.9948601722717285</v>
       </c>
       <c r="G67" t="n">
+        <v>0.9948601722717285</v>
+      </c>
+      <c r="H67" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2000,9 +2203,12 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9842368364334106</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2023,9 +2229,12 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9646338224411011</v>
+        <v>0.997908353805542</v>
       </c>
       <c r="G69" t="n">
+        <v>0.997908353805542</v>
+      </c>
+      <c r="H69" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2046,9 +2255,12 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9584690928459167</v>
+        <v>0.9999990463256836</v>
       </c>
       <c r="G70" t="n">
+        <v>0.9999990463256836</v>
+      </c>
+      <c r="H70" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2069,9 +2281,12 @@
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9928430318832397</v>
+        <v>0.9957228899002075</v>
       </c>
       <c r="G71" t="n">
+        <v>0.9957228899002075</v>
+      </c>
+      <c r="H71" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2092,9 +2307,12 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9903552532196045</v>
+        <v>0.999515175819397</v>
       </c>
       <c r="G72" t="n">
+        <v>0.999515175819397</v>
+      </c>
+      <c r="H72" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2115,9 +2333,12 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.8730742931365967</v>
+        <v>0.9988365769386292</v>
       </c>
       <c r="G73" t="n">
+        <v>0.9988365769386292</v>
+      </c>
+      <c r="H73" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2138,9 +2359,12 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9535307884216309</v>
+        <v>0.9999998807907104</v>
       </c>
       <c r="G74" t="n">
+        <v>0.9999998807907104</v>
+      </c>
+      <c r="H74" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2161,9 +2385,12 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.7061110734939575</v>
+        <v>0.9972671270370483</v>
       </c>
       <c r="G75" t="n">
+        <v>0.9972671270370483</v>
+      </c>
+      <c r="H75" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2184,9 +2411,12 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.8397104740142822</v>
+        <v>0.992675244808197</v>
       </c>
       <c r="G76" t="n">
+        <v>0.992675244808197</v>
+      </c>
+      <c r="H76" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2207,9 +2437,12 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.8399577140808105</v>
+        <v>0.9999885559082031</v>
       </c>
       <c r="G77" t="n">
+        <v>0.9999885559082031</v>
+      </c>
+      <c r="H77" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2230,9 +2463,12 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9248328804969788</v>
+        <v>0.9998311996459961</v>
       </c>
       <c r="G78" t="n">
+        <v>0.9998311996459961</v>
+      </c>
+      <c r="H78" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2253,9 +2489,12 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9871015548706055</v>
+        <v>0.9985805749893188</v>
       </c>
       <c r="G79" t="n">
+        <v>0.9985805749893188</v>
+      </c>
+      <c r="H79" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2276,9 +2515,12 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.8929634690284729</v>
+        <v>0.9790956974029541</v>
       </c>
       <c r="G80" t="n">
+        <v>0.9790956974029541</v>
+      </c>
+      <c r="H80" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2299,9 +2541,12 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.8676100969314575</v>
+        <v>0.8864626884460449</v>
       </c>
       <c r="G81" t="n">
+        <v>0.8864626884460449</v>
+      </c>
+      <c r="H81" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2322,9 +2567,12 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.8700846433639526</v>
+        <v>0.9994256496429443</v>
       </c>
       <c r="G82" t="n">
+        <v>0.9994256496429443</v>
+      </c>
+      <c r="H82" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2345,9 +2593,12 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9092254042625427</v>
+        <v>0.9976708292961121</v>
       </c>
       <c r="G83" t="n">
+        <v>0.9976708292961121</v>
+      </c>
+      <c r="H83" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2368,9 +2619,12 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9401218891143799</v>
+        <v>0.9879447221755981</v>
       </c>
       <c r="G84" t="n">
+        <v>0.9879447221755981</v>
+      </c>
+      <c r="H84" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2391,9 +2645,12 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.808925986289978</v>
+        <v>0.9999983310699463</v>
       </c>
       <c r="G85" t="n">
+        <v>0.9999983310699463</v>
+      </c>
+      <c r="H85" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2414,9 +2671,12 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.8287847638130188</v>
+        <v>0.9971140623092651</v>
       </c>
       <c r="G86" t="n">
+        <v>0.9971140623092651</v>
+      </c>
+      <c r="H86" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2437,9 +2697,12 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9036332368850708</v>
+        <v>0.9864740371704102</v>
       </c>
       <c r="G87" t="n">
+        <v>0.9864740371704102</v>
+      </c>
+      <c r="H87" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2460,9 +2723,12 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.8037270903587341</v>
+        <v>0.9998592138290405</v>
       </c>
       <c r="G88" t="n">
+        <v>0.9998592138290405</v>
+      </c>
+      <c r="H88" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2483,9 +2749,12 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.8857134580612183</v>
+        <v>0.9335467219352722</v>
       </c>
       <c r="G89" t="n">
+        <v>0.9335467219352722</v>
+      </c>
+      <c r="H89" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2506,9 +2775,12 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.8289209008216858</v>
+        <v>0.9827777743339539</v>
       </c>
       <c r="G90" t="n">
+        <v>0.9827777743339539</v>
+      </c>
+      <c r="H90" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2529,9 +2801,12 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9385186992585659</v>
+        <v>0.00334167736582458</v>
       </c>
       <c r="G91" t="n">
+        <v>0.9966583226341754</v>
+      </c>
+      <c r="H91" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2552,9 +2827,12 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9825421571731567</v>
+        <v>0.94896000623703</v>
       </c>
       <c r="G92" t="n">
+        <v>0.94896000623703</v>
+      </c>
+      <c r="H92" t="n">
         <v>12</v>
       </c>
     </row>
@@ -2575,9 +2853,12 @@
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>0.7351462244987488</v>
+        <v>0.9961919784545898</v>
       </c>
       <c r="G93" t="n">
+        <v>0.9961919784545898</v>
+      </c>
+      <c r="H93" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2592,15 +2873,18 @@
         <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>0.7176625728607178</v>
+        <v>1</v>
       </c>
       <c r="G94" t="n">
+        <v>1</v>
+      </c>
+      <c r="H94" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2615,15 +2899,18 @@
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9345507621765137</v>
+        <v>0.03074693866074085</v>
       </c>
       <c r="G95" t="n">
+        <v>0.9692530613392591</v>
+      </c>
+      <c r="H95" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2644,9 +2931,12 @@
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9582098722457886</v>
+        <v>0.9935060739517212</v>
       </c>
       <c r="G96" t="n">
+        <v>0.9935060739517212</v>
+      </c>
+      <c r="H96" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2667,9 +2957,12 @@
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9350080490112305</v>
+        <v>0.5564499497413635</v>
       </c>
       <c r="G97" t="n">
+        <v>0.5564499497413635</v>
+      </c>
+      <c r="H97" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2684,15 +2977,18 @@
         <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.873759925365448</v>
+        <v>0.0002732825523708016</v>
       </c>
       <c r="G98" t="n">
+        <v>0.9997267174476292</v>
+      </c>
+      <c r="H98" t="n">
         <v>15</v>
       </c>
     </row>
@@ -2707,15 +3003,18 @@
         <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.8809136003255844</v>
+        <v>0.7558157444000244</v>
       </c>
       <c r="G99" t="n">
+        <v>0.7558157444000244</v>
+      </c>
+      <c r="H99" t="n">
         <v>12</v>
       </c>
     </row>
@@ -2736,9 +3035,12 @@
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9996637105941772</v>
+        <v>1</v>
       </c>
       <c r="G100" t="n">
+        <v>1</v>
+      </c>
+      <c r="H100" t="n">
         <v>12</v>
       </c>
     </row>
@@ -2759,9 +3061,12 @@
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9972578883171082</v>
+        <v>1</v>
       </c>
       <c r="G101" t="n">
+        <v>1</v>
+      </c>
+      <c r="H101" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2782,9 +3087,12 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9741959292441607</v>
+        <v>8.657127182232216e-05</v>
       </c>
       <c r="G102" t="n">
+        <v>0.9999134287281777</v>
+      </c>
+      <c r="H102" t="n">
         <v>14</v>
       </c>
     </row>
